--- a/docs/基础数据：交易相关.xlsx
+++ b/docs/基础数据：交易相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="交易类型" sheetId="1" r:id="rId1"/>
@@ -428,11 +428,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -499,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/docs/基础数据：交易相关.xlsx
+++ b/docs/基础数据：交易相关.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易类型" sheetId="1" r:id="rId1"/>
-    <sheet name="结算类型" sheetId="2" r:id="rId2"/>
+    <sheet name="订单类型" sheetId="3" r:id="rId2"/>
+    <sheet name="结算类型" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>类型ID</t>
   </si>
@@ -78,6 +79,22 @@
   </si>
   <si>
     <t>cost per sale</t>
+  </si>
+  <si>
+    <t>PREPAID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTPAID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,6 +517,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
